--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\P12110009\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C09598-2249-4137-9BF8-05A80E765F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B7A64-1170-4E52-9FFC-23E07BD02BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A9EB192-8B8B-454F-993C-4C7F24651A6C}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{8A9EB192-8B8B-454F-993C-4C7F24651A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C6874A-4F72-478D-866A-E62EFD8B57CB}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -724,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
